--- a/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_land_lease_update.xlsx
+++ b/src/test/java/ru/fds/tavrzcms3/testdata/pledge_subject_land_lease_update.xlsx
@@ -780,7 +780,7 @@
   <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,7 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -925,7 +925,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>960</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>978</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
